--- a/komunikat.xlsx
+++ b/komunikat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Model sprzętu</t>
   </si>
@@ -22,53 +22,113 @@
     <t>Rozdzielczość [px]</t>
   </si>
   <si>
-    <t>Rzeczywista rozdzielczość czarno-biała (najlepszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała (najgorszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-zielona [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość zielono-niebieska [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-niebieska [px]</t>
-  </si>
-  <si>
     <t>Winietowanie - ocena</t>
   </si>
   <si>
-    <t>Dystorsje - współczynnik zmienności [%]</t>
-  </si>
-  <si>
     <t>Dystorsje - ocena</t>
   </si>
   <si>
     <t>Najmniejsza wielkość czcionki możliwa do rozpoznania</t>
   </si>
   <si>
-    <t>Szum czarnobiały - odchylenie standardowe</t>
-  </si>
-  <si>
     <t>Rozróżnialność - czarne - ocena</t>
   </si>
   <si>
     <t>Rozróżnialność - białe - ocena</t>
   </si>
   <si>
-    <t>Szum czarnobiały - współczynnik zmienności [%]</t>
-  </si>
-  <si>
-    <t>Winietowanie - różnica w średnich wartościach pikseli</t>
+    <t>Nazwa zdjęcia</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona w pionie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska w pionie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska w pionie [px]</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - czarno-biały</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - czerwony</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - żółty</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - jasnozielony</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - jasnoniebieski</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - ciemnoniebieski</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - różowy</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - fioletowy</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - łososiowy</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - ciemnozielony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +136,104 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD4FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEFFB4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,14 +248,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBEFFB4"/>
+      <color rgb="FFD2B4FF"/>
+      <color rgb="FF7030F0"/>
+      <color rgb="FFFFD4FA"/>
+      <color rgb="FFFFADCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,98 +568,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="1" max="1" width="63.8984375" customWidth="1"/>
+    <col min="2" max="11" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/komunikat.xlsx
+++ b/komunikat.xlsx
@@ -14,14 +14,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
   <si>
     <t>Model sprzętu</t>
   </si>
   <si>
+    <t>Nazwa zdjęcia</t>
+  </si>
+  <si>
     <t>Rozdzielczość [px]</t>
   </si>
   <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (średnia) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najlepszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najgorszy wynik) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-zielona w pionie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość zielono-niebieska w pionie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska (pion * poziom) [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska w poziomie [px]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość czerwono-niebieska w pionie [px]</t>
+  </si>
+  <si>
     <t>Winietowanie - ocena</t>
   </si>
   <si>
@@ -31,104 +88,209 @@
     <t>Najmniejsza wielkość czcionki możliwa do rozpoznania</t>
   </si>
   <si>
+    <t>Szum - odchylenie standardowe - czarno-biały (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - czerwony (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - żółty (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - jasnozielony (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - jasnoniebieski (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - ciemnoniebieski (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - różowy (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - fioletowy (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - łososiowy (średnia ze składowych)</t>
+  </si>
+  <si>
+    <t>Szum - odchylenie standardowe - ciemnozielony (średnia ze składowych)</t>
+  </si>
+  <si>
     <t>Rozróżnialność - czarne - ocena</t>
   </si>
   <si>
     <t>Rozróżnialność - białe - ocena</t>
   </si>
   <si>
-    <t>Nazwa zdjęcia</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (średnia) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w pionie (średnia) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (średnia) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najlepszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najlepszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najlepszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała (pion * poziom) (najgorszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w poziomie (najgorszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czarno-biała w pionie (najgorszy wynik) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-zielona (pion * poziom) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-zielona w pionie [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-zielona w poziomie [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość zielono-niebieska (pion * poziom) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość zielono-niebieska w poziomie [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość zielono-niebieska w pionie [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-niebieska (pion * poziom) [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-niebieska w poziomie [px]</t>
-  </si>
-  <si>
-    <t>Rzeczywista rozdzielczość czerwono-niebieska w pionie [px]</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - czarno-biały</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - czerwony</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - żółty</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - jasnozielony</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - jasnoniebieski</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - ciemnoniebieski</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - różowy</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - fioletowy</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - łososiowy</t>
-  </si>
-  <si>
-    <t>Szum - odchylenie standardowe - ciemnozielony</t>
+    <t>INFORMACJE SZCZEGÓŁOWE</t>
+  </si>
+  <si>
+    <t>TESTY ROZDZIELCZOŚCI RZECZYWISTEJ</t>
+  </si>
+  <si>
+    <t>Test rozdzielczości 1 (górny lewy róg)</t>
+  </si>
+  <si>
+    <t>Czarno-biały poziomy:</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość [mm]</t>
+  </si>
+  <si>
+    <t>Rzeczywista rozdzielczość całego zdjęcia [px]</t>
+  </si>
+  <si>
+    <t>Maksymalny możliwy wynik testu [px]</t>
+  </si>
+  <si>
+    <t>MTF [%]</t>
+  </si>
+  <si>
+    <t>Czarno-biały pionowy:</t>
+  </si>
+  <si>
+    <t>Test rozdzielczości 2 (górny prawy róg)</t>
+  </si>
+  <si>
+    <t>Test rozdzielczości 3 (dolny lewy róg)</t>
+  </si>
+  <si>
+    <t>Test rozdzielczości 4 (dolny prawy róg)</t>
+  </si>
+  <si>
+    <t>Test rozdzielczości 5 (centrum)</t>
+  </si>
+  <si>
+    <t>Zielono-niebieski poziomy:</t>
+  </si>
+  <si>
+    <t>Zielono-niebieski pionowy:</t>
+  </si>
+  <si>
+    <t>Niebiesko-czerwony poziomy:</t>
+  </si>
+  <si>
+    <t>Niebiesko-czerwony pionowy:</t>
+  </si>
+  <si>
+    <t>Czerwono-zielony poziomy:</t>
+  </si>
+  <si>
+    <t>Czerwono-zielony pionowy:</t>
+  </si>
+  <si>
+    <t>WINIETOWANIE</t>
+  </si>
+  <si>
+    <t>Różnica średniej wartości pikseli w centrum a w rogach kadru</t>
+  </si>
+  <si>
+    <t>DYSTORSJE</t>
+  </si>
+  <si>
+    <t>Obszar 1 (górny lewy):</t>
+  </si>
+  <si>
+    <t>Współczynnik zmienności poziomy odległości [%]</t>
+  </si>
+  <si>
+    <t>Współczynnik zmienności pionowy odległości [%]</t>
+  </si>
+  <si>
+    <t>Zagięcie [%]</t>
+  </si>
+  <si>
+    <t>Obszar 2 (górny prawy):</t>
+  </si>
+  <si>
+    <t>Obszar 3 (dolny lewy):</t>
+  </si>
+  <si>
+    <t>Obszar 4 (dolny prawy):</t>
+  </si>
+  <si>
+    <t>SZUM CZARNO-BIAŁY:</t>
+  </si>
+  <si>
+    <t>Średnia wartość pikseli</t>
+  </si>
+  <si>
+    <t>Współczynnik zmienności [%]</t>
+  </si>
+  <si>
+    <t>SZUM KOLOROWY:</t>
+  </si>
+  <si>
+    <t>Czerwony:</t>
+  </si>
+  <si>
+    <t>Składowa R:</t>
+  </si>
+  <si>
+    <t>Odchylenie standardowe wartości pikseli</t>
+  </si>
+  <si>
+    <t>Współczynnik zmienności wartości pikesli [%]</t>
+  </si>
+  <si>
+    <t>Składowa G:</t>
+  </si>
+  <si>
+    <t>Składowa B:</t>
+  </si>
+  <si>
+    <t>Żółty:</t>
+  </si>
+  <si>
+    <t>Jasnozielony:</t>
+  </si>
+  <si>
+    <t>Jasnoniebieski:</t>
+  </si>
+  <si>
+    <t>Ciemnoniebieski:</t>
+  </si>
+  <si>
+    <t>Różowy:</t>
+  </si>
+  <si>
+    <t>Fioletowy:</t>
+  </si>
+  <si>
+    <t>Łososiowy:</t>
+  </si>
+  <si>
+    <t>Ciemnozielony:</t>
+  </si>
+  <si>
+    <t>ROZRÓŻNIALNOŚĆ:</t>
+  </si>
+  <si>
+    <t>Obszar czarny:</t>
+  </si>
+  <si>
+    <t>Różnica średniej wartości pikseli obszarów 1 i 2</t>
+  </si>
+  <si>
+    <t>Różnica średniej wartości pikseli obszarów 2 i 3</t>
+  </si>
+  <si>
+    <t>Różnica średniej wartości pikseli obszarów 3 i 4</t>
+  </si>
+  <si>
+    <t>Różnica średniej wartości pikseli obszarów 4 i 5</t>
+  </si>
+  <si>
+    <t>Obszar biały:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +305,22 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +408,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBEFFB4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,38 +496,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFBEFFB4"/>
-      <color rgb="FFD2B4FF"/>
-      <color rgb="FF7030F0"/>
-      <color rgb="FFFFD4FA"/>
-      <color rgb="FFFFADCC"/>
-    </mruColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -568,200 +826,1757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:K269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="63.8984375" customWidth="1"/>
-    <col min="2" max="11" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="70.19921875" style="34" customWidth="1"/>
+    <col min="2" max="3" width="17.8984375" style="34" customWidth="1"/>
+    <col min="4" max="11" width="15.8984375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="13" t="s">
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="14" t="s">
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1">
+      <c r="A38" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132"/>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133"/>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136"/>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140"/>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150"/>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158"/>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>72</v>
+      </c>
+      <c r="B159"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161"/>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162"/>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>72</v>
+      </c>
+      <c r="B163"/>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>71</v>
+      </c>
+      <c r="B175"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176"/>
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>71</v>
+      </c>
+      <c r="B179"/>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>72</v>
+      </c>
+      <c r="B180"/>
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183"/>
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184"/>
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>72</v>
+      </c>
+      <c r="B185"/>
+      <c r="C185"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187"/>
+      <c r="C187"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188"/>
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>72</v>
+      </c>
+      <c r="B189"/>
+      <c r="C189"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191"/>
+      <c r="C191"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192"/>
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>72</v>
+      </c>
+      <c r="B193"/>
+      <c r="C193"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196"/>
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197"/>
+      <c r="C197"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198"/>
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201"/>
+      <c r="C201"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>72</v>
+      </c>
+      <c r="B202"/>
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204"/>
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>71</v>
+      </c>
+      <c r="B205"/>
+      <c r="C205"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206"/>
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209"/>
+      <c r="C209"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>71</v>
+      </c>
+      <c r="B210"/>
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211"/>
+      <c r="C211"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>66</v>
+      </c>
+      <c r="B213"/>
+      <c r="C213"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>71</v>
+      </c>
+      <c r="B214"/>
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>72</v>
+      </c>
+      <c r="B215"/>
+      <c r="C215"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>66</v>
+      </c>
+      <c r="B217"/>
+      <c r="C217"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218"/>
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219"/>
+      <c r="C219"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>66</v>
+      </c>
+      <c r="B222"/>
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>71</v>
+      </c>
+      <c r="B223"/>
+      <c r="C223"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>72</v>
+      </c>
+      <c r="B224"/>
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>66</v>
+      </c>
+      <c r="B226"/>
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>71</v>
+      </c>
+      <c r="B227"/>
+      <c r="C227"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228"/>
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>66</v>
+      </c>
+      <c r="B230"/>
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>71</v>
+      </c>
+      <c r="B231"/>
+      <c r="C231"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B232"/>
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>66</v>
+      </c>
+      <c r="B235"/>
+      <c r="C235"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>71</v>
+      </c>
+      <c r="B236"/>
+      <c r="C236"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B237"/>
+      <c r="C237"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>66</v>
+      </c>
+      <c r="B239"/>
+      <c r="C239"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240"/>
+      <c r="C240"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241"/>
+      <c r="C241"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243"/>
+      <c r="C243"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>71</v>
+      </c>
+      <c r="B244"/>
+      <c r="C244"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>72</v>
+      </c>
+      <c r="B245"/>
+      <c r="C245"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>66</v>
+      </c>
+      <c r="B248"/>
+      <c r="C248"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>71</v>
+      </c>
+      <c r="B249"/>
+      <c r="C249"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>72</v>
+      </c>
+      <c r="B250"/>
+      <c r="C250"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252"/>
+      <c r="C252"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253"/>
+      <c r="C253"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>72</v>
+      </c>
+      <c r="B254"/>
+      <c r="C254"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>66</v>
+      </c>
+      <c r="B256"/>
+      <c r="C256"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>71</v>
+      </c>
+      <c r="B257"/>
+      <c r="C257"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>72</v>
+      </c>
+      <c r="B258"/>
+      <c r="C258"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261"/>
+      <c r="C261"/>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>86</v>
+      </c>
+      <c r="B262"/>
+      <c r="C262"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>87</v>
+      </c>
+      <c r="B263"/>
+      <c r="C263"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>88</v>
+      </c>
+      <c r="B264"/>
+      <c r="C264"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>85</v>
+      </c>
+      <c r="B266"/>
+      <c r="C266"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>86</v>
+      </c>
+      <c r="B267"/>
+      <c r="C267"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>87</v>
+      </c>
+      <c r="B268"/>
+      <c r="C268"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>88</v>
+      </c>
+      <c r="B269"/>
+      <c r="C269"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>